--- a/src/main/resources/excel/3 - Vocabulary.xlsx
+++ b/src/main/resources/excel/3 - Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="1855">
   <si>
     <t xml:space="preserve">One</t>
   </si>
@@ -39,16 +39,16 @@
     <t xml:space="preserve">wʌn</t>
   </si>
   <si>
+    <t xml:space="preserve">Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tu</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tu</t>
   </si>
   <si>
     <t xml:space="preserve">Three</t>
@@ -6094,8 +6094,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6115,22 +6115,19 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,7 +6155,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6169,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,7 +6183,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +6197,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6211,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6225,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6242,7 +6239,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,7 +6264,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,7 +6278,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,7 +6292,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,7 +6320,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6337,7 +6334,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,7 +6348,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,7 +6362,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6376,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,7 +6401,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6418,7 +6415,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6429,7 @@
         <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,7 +6443,7 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,7 +6457,7 @@
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6474,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,7 +6485,7 @@
         <v>84</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6499,7 @@
         <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,7 +6513,7 @@
         <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,7 +6527,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,7 +6541,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,7 +6555,7 @@
         <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,7 +6569,7 @@
         <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,7 +6583,7 @@
         <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6597,7 @@
         <v>108</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,7 +6611,7 @@
         <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,7 +6625,7 @@
         <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6681,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,7 +6695,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +6709,7 @@
         <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6726,7 +6723,7 @@
         <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,7 +6737,7 @@
         <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6754,7 +6751,7 @@
         <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,7 +6765,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,7 +6779,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6796,7 +6793,7 @@
         <v>144</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6810,7 +6807,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,7 +6821,7 @@
         <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6838,7 +6835,7 @@
         <v>152</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6849,7 @@
         <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,7 +6863,7 @@
         <v>158</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6880,7 +6877,7 @@
         <v>161</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,7 +6891,7 @@
         <v>164</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,7 +6905,7 @@
         <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,7 +6919,7 @@
         <v>170</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,7 +6945,7 @@
         <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,7 +6959,7 @@
         <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,7 +6973,7 @@
         <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,7 +6987,7 @@
         <v>184</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,7 +7001,7 @@
         <v>185</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,7 +7015,7 @@
         <v>189</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,7 +7029,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,7 +7043,7 @@
         <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,7 +7057,7 @@
         <v>198</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,7 +7071,7 @@
         <v>199</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,7 +7085,7 @@
         <v>203</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,7 +7099,7 @@
         <v>206</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,7 +7113,7 @@
         <v>209</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,7 +7127,7 @@
         <v>212</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7144,7 +7141,7 @@
         <v>215</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7155,7 @@
         <v>218</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,7 +7169,7 @@
         <v>192</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,7 +7183,7 @@
         <v>221</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,7 +7197,7 @@
         <v>224</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,7 +7211,7 @@
         <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,7 +7237,7 @@
         <v>230</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,7 +7251,7 @@
         <v>233</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,7 +7265,7 @@
         <v>236</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +7279,7 @@
         <v>239</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,7 +7293,7 @@
         <v>242</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,7 +7307,7 @@
         <v>245</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,7 +7321,7 @@
         <v>248</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7338,7 +7335,7 @@
         <v>251</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7352,7 +7349,7 @@
         <v>254</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,7 +7363,7 @@
         <v>257</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7380,7 +7377,7 @@
         <v>260</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,7 +7391,7 @@
         <v>263</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,7 +7405,7 @@
         <v>266</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,7 +7419,7 @@
         <v>269</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,7 +7433,7 @@
         <v>272</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7493,7 +7490,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7507,7 +7504,7 @@
         <v>281</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,7 +7518,7 @@
         <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +7532,7 @@
         <v>287</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +7546,7 @@
         <v>290</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,7 +7560,7 @@
         <v>293</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7577,7 +7574,7 @@
         <v>296</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,7 +7588,7 @@
         <v>299</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,7 +7602,7 @@
         <v>302</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7619,7 +7616,7 @@
         <v>305</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,7 +7630,7 @@
         <v>308</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,7 +7644,7 @@
         <v>311</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +7658,7 @@
         <v>314</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +7672,7 @@
         <v>317</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,7 +7686,7 @@
         <v>320</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7703,7 +7700,7 @@
         <v>323</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +7714,7 @@
         <v>326</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,7 +7728,7 @@
         <v>329</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7756,7 +7753,7 @@
         <v>335</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7770,7 +7767,7 @@
         <v>337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,7 +7781,7 @@
         <v>340</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,7 +7795,7 @@
         <v>343</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7812,7 +7809,7 @@
         <v>346</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7826,7 +7823,7 @@
         <v>349</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,7 +7837,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7854,7 +7851,7 @@
         <v>355</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,7 +7865,7 @@
         <v>358</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,7 +7879,7 @@
         <v>361</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,7 +7893,7 @@
         <v>364</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7910,7 +7907,7 @@
         <v>367</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,7 +7921,7 @@
         <v>370</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,7 +7935,7 @@
         <v>373</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7952,7 +7949,7 @@
         <v>376</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,7 +7963,7 @@
         <v>379</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,7 +7977,7 @@
         <v>382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,7 +7991,7 @@
         <v>385</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8008,7 +8005,7 @@
         <v>388</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8033,7 +8030,7 @@
         <v>394</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,7 +8044,7 @@
         <v>397</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,7 +8058,7 @@
         <v>400</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8075,7 +8072,7 @@
         <v>403</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8137,7 +8134,7 @@
         <v>409</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,7 +8148,7 @@
         <v>412</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +8162,7 @@
         <v>415</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,7 +8176,7 @@
         <v>418</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,7 +8190,7 @@
         <v>421</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,7 +8204,7 @@
         <v>424</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,7 +8218,7 @@
         <v>427</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,7 +8232,7 @@
         <v>430</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,7 +8246,7 @@
         <v>433</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8263,7 +8260,7 @@
         <v>436</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,7 +8274,7 @@
         <v>439</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,7 +8288,7 @@
         <v>442</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,7 +8302,7 @@
         <v>445</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,7 +8316,7 @@
         <v>448</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +8330,7 @@
         <v>451</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,7 +8344,7 @@
         <v>454</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,7 +8358,7 @@
         <v>457</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,7 +8372,7 @@
         <v>460</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,7 +8397,7 @@
         <v>466</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,7 +8411,7 @@
         <v>469</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8428,7 +8425,7 @@
         <v>472</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,7 +8439,7 @@
         <v>475</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,7 +8453,7 @@
         <v>478</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,7 +8467,7 @@
         <v>481</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8484,7 +8481,7 @@
         <v>484</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8495,7 @@
         <v>487</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8512,7 +8509,7 @@
         <v>490</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8526,7 +8523,7 @@
         <v>493</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,7 +8537,7 @@
         <v>496</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,7 +8551,7 @@
         <v>497</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,7 +8565,7 @@
         <v>499</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,7 +8579,7 @@
         <v>503</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,7 +8593,7 @@
         <v>506</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,7 +8607,7 @@
         <v>509</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,7 +8621,7 @@
         <v>512</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,7 +8635,7 @@
         <v>515</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8652,7 +8649,7 @@
         <v>518</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,7 +8674,7 @@
         <v>524</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8691,7 +8688,7 @@
         <v>527</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8705,7 +8702,7 @@
         <v>530</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,7 +8716,7 @@
         <v>533</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8733,7 +8730,7 @@
         <v>536</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,7 +8744,7 @@
         <v>539</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,7 +8758,7 @@
         <v>542</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,7 +8772,7 @@
         <v>545</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8789,7 +8786,7 @@
         <v>548</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,7 +8800,7 @@
         <v>551</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,7 +8814,7 @@
         <v>554</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8831,7 +8828,7 @@
         <v>557</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8845,7 +8842,7 @@
         <v>560</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8859,7 +8856,7 @@
         <v>563</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8873,7 +8870,7 @@
         <v>566</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,7 +8884,7 @@
         <v>569</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8901,7 +8898,7 @@
         <v>572</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8915,7 +8912,7 @@
         <v>575</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,7 +8926,7 @@
         <v>578</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,7 +8940,7 @@
         <v>581</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8998,7 +8995,7 @@
         <v>587</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,7 +9009,7 @@
         <v>590</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9026,7 +9023,7 @@
         <v>263</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,7 +9037,7 @@
         <v>595</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,7 +9051,7 @@
         <v>598</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9068,7 +9065,7 @@
         <v>601</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9082,7 +9079,7 @@
         <v>604</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9096,7 +9093,7 @@
         <v>607</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,7 +9107,7 @@
         <v>610</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,7 +9121,7 @@
         <v>613</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,7 +9135,7 @@
         <v>616</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9152,7 +9149,7 @@
         <v>617</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,7 +9163,7 @@
         <v>621</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9180,7 +9177,7 @@
         <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +9191,7 @@
         <v>625</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9208,7 +9205,7 @@
         <v>629</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,7 +9219,7 @@
         <v>632</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,7 +9233,7 @@
         <v>635</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9261,7 +9258,7 @@
         <v>641</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9275,7 +9272,7 @@
         <v>644</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,7 +9286,7 @@
         <v>647</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,7 +9300,7 @@
         <v>650</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,7 +9314,7 @@
         <v>653</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,7 +9328,7 @@
         <v>656</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,7 +9342,7 @@
         <v>657</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,7 +9356,7 @@
         <v>661</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,7 +9370,7 @@
         <v>664</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9387,7 +9384,7 @@
         <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,7 +9398,7 @@
         <v>670</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,7 +9412,7 @@
         <v>673</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,7 +9426,7 @@
         <v>674</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9443,7 +9440,7 @@
         <v>678</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9457,7 +9454,7 @@
         <v>681</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,7 +9468,7 @@
         <v>684</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,7 +9482,7 @@
         <v>686</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9499,7 +9496,7 @@
         <v>689</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,7 +9510,7 @@
         <v>692</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,7 +9535,7 @@
         <v>698</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9552,7 +9549,7 @@
         <v>701</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9566,7 +9563,7 @@
         <v>704</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9580,7 +9577,7 @@
         <v>707</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9594,7 +9591,7 @@
         <v>710</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,7 +9605,7 @@
         <v>713</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9622,7 +9619,7 @@
         <v>716</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9636,7 +9633,7 @@
         <v>719</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9650,7 +9647,7 @@
         <v>722</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9664,7 +9661,7 @@
         <v>725</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9678,7 +9675,7 @@
         <v>728</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9692,7 +9689,7 @@
         <v>731</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9706,7 +9703,7 @@
         <v>734</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9720,7 +9717,7 @@
         <v>737</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,7 +9731,7 @@
         <v>740</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9748,7 +9745,7 @@
         <v>743</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +9759,7 @@
         <v>746</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,7 +9773,7 @@
         <v>749</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9790,7 +9787,7 @@
         <v>752</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9815,7 +9812,7 @@
         <v>756</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,7 +9826,7 @@
         <v>760</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9843,7 +9840,7 @@
         <v>763</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9857,7 +9854,7 @@
         <v>766</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9871,7 +9868,7 @@
         <v>767</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9885,7 +9882,7 @@
         <v>771</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,7 +9896,7 @@
         <v>774</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,7 +9910,7 @@
         <v>777</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9927,7 +9924,7 @@
         <v>780</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,7 +9938,7 @@
         <v>782</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,7 +9952,7 @@
         <v>785</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9969,7 +9966,7 @@
         <v>788</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9983,7 +9980,7 @@
         <v>791</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,7 +9994,7 @@
         <v>794</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10011,7 +10008,7 @@
         <v>797</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10025,7 +10022,7 @@
         <v>800</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,7 +10036,7 @@
         <v>198</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10053,7 +10050,7 @@
         <v>805</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,7 +10064,7 @@
         <v>808</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10092,7 +10089,7 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,7 +10103,7 @@
         <v>815</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10120,7 +10117,7 @@
         <v>817</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,7 +10131,7 @@
         <v>819</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10148,7 +10145,7 @@
         <v>822</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10162,7 +10159,7 @@
         <v>206</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10176,7 +10173,7 @@
         <v>826</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10190,7 +10187,7 @@
         <v>829</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,7 +10201,7 @@
         <v>832</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10218,7 +10215,7 @@
         <v>834</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10232,7 +10229,7 @@
         <v>266</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10246,7 +10243,7 @@
         <v>839</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,7 +10257,7 @@
         <v>842</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10274,7 +10271,7 @@
         <v>845</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10288,7 +10285,7 @@
         <v>848</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10302,7 +10299,7 @@
         <v>851</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10316,7 +10313,7 @@
         <v>854</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10330,7 +10327,7 @@
         <v>857</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10344,7 +10341,7 @@
         <v>860</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,7 +10366,7 @@
         <v>866</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10383,7 +10380,7 @@
         <v>868</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +10394,7 @@
         <v>871</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10411,7 +10408,7 @@
         <v>874</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10425,7 +10422,7 @@
         <v>877</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10439,7 +10436,7 @@
         <v>880</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10453,7 +10450,7 @@
         <v>883</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,7 +10464,7 @@
         <v>886</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10481,7 +10478,7 @@
         <v>887</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10495,7 +10492,7 @@
         <v>889</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10509,7 +10506,7 @@
         <v>893</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10523,7 +10520,7 @@
         <v>896</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10537,7 +10534,7 @@
         <v>899</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10551,7 +10548,7 @@
         <v>902</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,7 +10562,7 @@
         <v>905</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10579,7 +10576,7 @@
         <v>908</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10593,7 +10590,7 @@
         <v>911</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10607,7 +10604,7 @@
         <v>913</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10621,7 +10618,7 @@
         <v>916</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10646,7 +10643,7 @@
         <v>922</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,7 +10657,7 @@
         <v>925</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,7 +10671,7 @@
         <v>928</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,7 +10685,7 @@
         <v>929</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,7 +10699,7 @@
         <v>933</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,7 +10713,7 @@
         <v>936</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10730,7 +10727,7 @@
         <v>939</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10744,7 +10741,7 @@
         <v>942</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10758,7 +10755,7 @@
         <v>945</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10772,7 +10769,7 @@
         <v>948</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10786,7 +10783,7 @@
         <v>951</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,7 +10797,7 @@
         <v>954</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10858,7 +10855,7 @@
         <v>960</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10872,7 +10869,7 @@
         <v>963</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10886,7 +10883,7 @@
         <v>966</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10900,7 +10897,7 @@
         <v>969</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10914,7 +10911,7 @@
         <v>972</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10928,7 +10925,7 @@
         <v>975</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10942,7 +10939,7 @@
         <v>978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10956,7 +10953,7 @@
         <v>981</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10970,7 +10967,7 @@
         <v>983</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,7 +10981,7 @@
         <v>986</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10998,7 +10995,7 @@
         <v>989</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11012,7 +11009,7 @@
         <v>992</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11026,7 +11023,7 @@
         <v>995</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11040,7 +11037,7 @@
         <v>997</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11054,7 +11051,7 @@
         <v>999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11068,7 +11065,7 @@
         <v>1002</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,7 +11079,7 @@
         <v>997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11096,7 +11093,7 @@
         <v>1006</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11121,7 +11118,7 @@
         <v>1011</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11135,7 +11132,7 @@
         <v>1014</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,7 +11146,7 @@
         <v>1017</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11163,7 +11160,7 @@
         <v>1020</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11177,7 +11174,7 @@
         <v>1023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11191,7 +11188,7 @@
         <v>1026</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,7 +11202,7 @@
         <v>1029</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11219,7 +11216,7 @@
         <v>1032</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,7 +11230,7 @@
         <v>1035</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,7 +11244,7 @@
         <v>1038</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11261,7 +11258,7 @@
         <v>1041</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11275,7 +11272,7 @@
         <v>1043</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11289,7 +11286,7 @@
         <v>1046</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,7 +11300,7 @@
         <v>1049</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11317,7 +11314,7 @@
         <v>1052</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11331,7 +11328,7 @@
         <v>1055</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11345,7 +11342,7 @@
         <v>1058</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,7 +11356,7 @@
         <v>1061</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11373,7 +11370,7 @@
         <v>1064</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,7 +11395,7 @@
         <v>1070</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11412,7 +11409,7 @@
         <v>1073</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11426,7 +11423,7 @@
         <v>1075</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11440,7 +11437,7 @@
         <v>1078</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11454,7 +11451,7 @@
         <v>1081</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11468,7 +11465,7 @@
         <v>1084</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11482,7 +11479,7 @@
         <v>1087</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11496,7 +11493,7 @@
         <v>1090</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11510,7 +11507,7 @@
         <v>1093</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11524,7 +11521,7 @@
         <v>1096</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11538,7 +11535,7 @@
         <v>1098</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,7 +11549,7 @@
         <v>1100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11566,7 +11563,7 @@
         <v>1103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,7 +11577,7 @@
         <v>1106</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11594,7 +11591,7 @@
         <v>1109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11608,7 +11605,7 @@
         <v>1112</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11622,7 +11619,7 @@
         <v>1115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11636,7 +11633,7 @@
         <v>1118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11650,7 +11647,7 @@
         <v>1120</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11675,7 +11672,7 @@
         <v>1126</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11689,7 +11686,7 @@
         <v>1128</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,7 +11700,7 @@
         <v>1131</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11717,7 +11714,7 @@
         <v>1134</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11731,7 +11728,7 @@
         <v>1137</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11745,7 +11742,7 @@
         <v>1140</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11759,7 +11756,7 @@
         <v>1143</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11773,7 +11770,7 @@
         <v>1146</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11787,7 +11784,7 @@
         <v>1149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11801,7 +11798,7 @@
         <v>1152</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11815,7 +11812,7 @@
         <v>1155</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11829,7 +11826,7 @@
         <v>1158</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11843,7 +11840,7 @@
         <v>1128</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11857,7 +11854,7 @@
         <v>1161</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11871,7 +11868,7 @@
         <v>1164</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,7 +11882,7 @@
         <v>1167</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11899,7 +11896,7 @@
         <v>1128</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11913,7 +11910,7 @@
         <v>1170</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,7 +11924,7 @@
         <v>1173</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11952,7 +11949,7 @@
         <v>1179</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11966,7 +11963,7 @@
         <v>1182</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11980,7 +11977,7 @@
         <v>1185</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11994,7 +11991,7 @@
         <v>1188</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12008,7 +12005,7 @@
         <v>1191</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12022,7 +12019,7 @@
         <v>1194</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12036,7 +12033,7 @@
         <v>1197</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12050,7 +12047,7 @@
         <v>1200</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12064,7 +12061,7 @@
         <v>1115</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12078,7 +12075,7 @@
         <v>1203</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12092,7 +12089,7 @@
         <v>1206</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12106,7 +12103,7 @@
         <v>1209</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12120,7 +12117,7 @@
         <v>1210</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12134,7 +12131,7 @@
         <v>1213</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12148,7 +12145,7 @@
         <v>1216</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12162,7 +12159,7 @@
         <v>1219</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,7 +12173,7 @@
         <v>1222</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,7 +12187,7 @@
         <v>1225</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12204,7 +12201,7 @@
         <v>1227</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12229,7 +12226,7 @@
         <v>1232</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12243,7 +12240,7 @@
         <v>1233</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,7 +12254,7 @@
         <v>1237</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12271,7 +12268,7 @@
         <v>1239</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12285,7 +12282,7 @@
         <v>1240</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,7 +12296,7 @@
         <v>1243</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12313,7 +12310,7 @@
         <v>1246</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12327,7 +12324,7 @@
         <v>1249</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,7 +12338,7 @@
         <v>1252</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12355,7 +12352,7 @@
         <v>1255</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12369,7 +12366,7 @@
         <v>1258</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,7 +12380,7 @@
         <v>1261</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12397,7 +12394,7 @@
         <v>1264</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12411,7 +12408,7 @@
         <v>1267</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12425,7 +12422,7 @@
         <v>1270</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12439,7 +12436,7 @@
         <v>1176</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12453,7 +12450,7 @@
         <v>1273</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12467,7 +12464,7 @@
         <v>1276</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12481,7 +12478,7 @@
         <v>1279</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12506,7 +12503,7 @@
         <v>1285</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12520,7 +12517,7 @@
         <v>1288</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12534,7 +12531,7 @@
         <v>1290</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12548,7 +12545,7 @@
         <v>1009</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12562,7 +12559,7 @@
         <v>1293</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12576,7 +12573,7 @@
         <v>1296</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12590,7 +12587,7 @@
         <v>1299</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12604,7 +12601,7 @@
         <v>1302</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12618,7 +12615,7 @@
         <v>1305</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12632,7 +12629,7 @@
         <v>1307</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12646,7 +12643,7 @@
         <v>1308</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12660,7 +12657,7 @@
         <v>1312</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12674,7 +12671,7 @@
         <v>1314</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12688,7 +12685,7 @@
         <v>1315</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12702,7 +12699,7 @@
         <v>1318</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12716,7 +12713,7 @@
         <v>1321</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,7 +12727,7 @@
         <v>1324</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12744,7 +12741,7 @@
         <v>1327</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12758,7 +12755,7 @@
         <v>1330</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12783,7 +12780,7 @@
         <v>1336</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12797,7 +12794,7 @@
         <v>1339</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12811,7 +12808,7 @@
         <v>1342</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12825,7 +12822,7 @@
         <v>1345</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12839,7 +12836,7 @@
         <v>1348</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12853,7 +12850,7 @@
         <v>1351</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12867,7 +12864,7 @@
         <v>1354</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12881,7 +12878,7 @@
         <v>1357</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12895,7 +12892,7 @@
         <v>1360</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12909,7 +12906,7 @@
         <v>983</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12923,7 +12920,7 @@
         <v>986</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12937,7 +12934,7 @@
         <v>1364</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12951,7 +12948,7 @@
         <v>1367</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12965,7 +12962,7 @@
         <v>1370</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12979,7 +12976,7 @@
         <v>1373</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12993,7 +12990,7 @@
         <v>1376</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13007,7 +13004,7 @@
         <v>1379</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13021,7 +13018,7 @@
         <v>1382</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13035,7 +13032,7 @@
         <v>1383</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13060,7 +13057,7 @@
         <v>1389</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13074,7 +13071,7 @@
         <v>1392</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,7 +13085,7 @@
         <v>1395</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13102,7 +13099,7 @@
         <v>1397</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,7 +13113,7 @@
         <v>1400</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13130,7 +13127,7 @@
         <v>1403</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,7 +13141,7 @@
         <v>1406</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13158,7 +13155,7 @@
         <v>1409</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -13288,7 +13285,7 @@
         <v>1425</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13302,7 +13299,7 @@
         <v>1428</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13316,7 +13313,7 @@
         <v>1431</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13330,7 +13327,7 @@
         <v>1434</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13344,7 +13341,7 @@
         <v>1435</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13358,7 +13355,7 @@
         <v>1439</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13372,7 +13369,7 @@
         <v>1442</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13386,7 +13383,7 @@
         <v>1445</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13400,7 +13397,7 @@
         <v>1448</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13414,7 +13411,7 @@
         <v>1451</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13428,7 +13425,7 @@
         <v>1452</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13442,7 +13439,7 @@
         <v>1456</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13456,7 +13453,7 @@
         <v>1459</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13470,7 +13467,7 @@
         <v>1462</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13484,7 +13481,7 @@
         <v>1465</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13498,7 +13495,7 @@
         <v>1468</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13512,7 +13509,7 @@
         <v>1470</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13526,7 +13523,7 @@
         <v>1473</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,7 +13537,7 @@
         <v>1476</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13565,7 +13562,7 @@
         <v>1482</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13579,7 +13576,7 @@
         <v>1485</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13593,7 +13590,7 @@
         <v>1439</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13607,7 +13604,7 @@
         <v>1488</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,7 +13618,7 @@
         <v>1491</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13635,7 +13632,7 @@
         <v>1494</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13649,7 +13646,7 @@
         <v>1497</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13663,7 +13660,7 @@
         <v>1500</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13677,7 +13674,7 @@
         <v>1503</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13691,7 +13688,7 @@
         <v>1506</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,7 +13702,7 @@
         <v>1509</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13719,7 +13716,7 @@
         <v>1512</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13733,7 +13730,7 @@
         <v>1514</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,7 +13744,7 @@
         <v>1517</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13761,7 +13758,7 @@
         <v>1520</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,7 +13772,7 @@
         <v>1523</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13789,7 +13786,7 @@
         <v>1525</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,7 +13800,7 @@
         <v>1527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13817,7 +13814,7 @@
         <v>1530</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13842,7 +13839,7 @@
         <v>1535</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13856,7 +13853,7 @@
         <v>1538</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13867,7 @@
         <v>1541</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13884,7 +13881,7 @@
         <v>1544</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13898,7 +13895,7 @@
         <v>1547</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13912,7 +13909,7 @@
         <v>1550</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13926,7 +13923,7 @@
         <v>1553</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13940,7 +13937,7 @@
         <v>1556</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13954,7 +13951,7 @@
         <v>1558</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13968,7 +13965,7 @@
         <v>1560</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13982,7 +13979,7 @@
         <v>1563</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13996,7 +13993,7 @@
         <v>1566</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14010,7 +14007,7 @@
         <v>1569</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14024,7 +14021,7 @@
         <v>1572</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14038,7 +14035,7 @@
         <v>1575</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14052,7 +14049,7 @@
         <v>1578</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14066,7 +14063,7 @@
         <v>1581</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14080,7 +14077,7 @@
         <v>1583</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14094,7 +14091,7 @@
         <v>1585</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14119,7 +14116,7 @@
         <v>1590</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14133,7 +14130,7 @@
         <v>1592</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14147,7 +14144,7 @@
         <v>1595</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14161,7 +14158,7 @@
         <v>1598</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14175,7 +14172,7 @@
         <v>1601</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,7 +14186,7 @@
         <v>1604</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14203,7 +14200,7 @@
         <v>1607</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14217,7 +14214,7 @@
         <v>1610</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14231,7 +14228,7 @@
         <v>1612</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14245,7 +14242,7 @@
         <v>1615</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14259,7 +14256,7 @@
         <v>1618</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,7 +14270,7 @@
         <v>1620</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14287,7 +14284,7 @@
         <v>1623</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14301,7 +14298,7 @@
         <v>1625</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14315,7 +14312,7 @@
         <v>1628</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14329,7 +14326,7 @@
         <v>1631</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14343,7 +14340,7 @@
         <v>1634</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14357,7 +14354,7 @@
         <v>1636</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14371,7 +14368,7 @@
         <v>1639</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14396,7 +14393,7 @@
         <v>1645</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14410,7 +14407,7 @@
         <v>1648</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,7 +14421,7 @@
         <v>1651</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14438,7 +14435,7 @@
         <v>1654</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14452,7 +14449,7 @@
         <v>1657</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14466,7 +14463,7 @@
         <v>1660</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,7 +14477,7 @@
         <v>1663</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14494,7 +14491,7 @@
         <v>1666</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14508,7 +14505,7 @@
         <v>1668</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14522,7 +14519,7 @@
         <v>1671</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14536,7 +14533,7 @@
         <v>1674</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14550,7 +14547,7 @@
         <v>1677</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14564,7 +14561,7 @@
         <v>1680</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14578,7 +14575,7 @@
         <v>1683</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14592,7 +14589,7 @@
         <v>1685</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14606,7 +14603,7 @@
         <v>1688</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14620,7 +14617,7 @@
         <v>1691</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,7 +14631,7 @@
         <v>1694</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14648,7 +14645,7 @@
         <v>1696</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,7 +14670,7 @@
         <v>1702</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14687,7 +14684,7 @@
         <v>1705</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14701,7 +14698,7 @@
         <v>1708</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14715,7 +14712,7 @@
         <v>1711</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14729,7 +14726,7 @@
         <v>1714</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14743,7 +14740,7 @@
         <v>1716</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14757,7 +14754,7 @@
         <v>1719</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14771,7 +14768,7 @@
         <v>1722</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14785,7 +14782,7 @@
         <v>1724</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14799,7 +14796,7 @@
         <v>1726</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14813,7 +14810,7 @@
         <v>1729</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14827,7 +14824,7 @@
         <v>1732</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14841,7 +14838,7 @@
         <v>1735</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14855,7 +14852,7 @@
         <v>1737</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14869,7 +14866,7 @@
         <v>1740</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14883,7 +14880,7 @@
         <v>1743</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14897,7 +14894,7 @@
         <v>1745</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14911,7 +14908,7 @@
         <v>1748</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -14932,7 +14929,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -14953,9 +14950,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -14965,10 +14960,10 @@
         <v>1752</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14982,7 +14977,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14996,7 +14991,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,7 +15005,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15024,7 +15019,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15038,7 +15033,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15052,7 +15047,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15066,7 +15061,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15080,7 +15075,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15094,7 +15089,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,7 +15103,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15122,7 +15117,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15136,7 +15131,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15150,7 +15145,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15164,7 +15159,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15178,7 +15173,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15192,7 +15187,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15206,7 +15201,7 @@
         <v>1784</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15231,7 +15226,7 @@
         <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15245,7 +15240,7 @@
         <v>1790</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15259,7 +15254,7 @@
         <v>96</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15273,7 +15268,7 @@
         <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15287,7 +15282,7 @@
         <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15301,7 +15296,7 @@
         <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15315,7 +15310,7 @@
         <v>1800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15329,7 +15324,7 @@
         <v>1804</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15343,7 +15338,7 @@
         <v>1807</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15357,7 +15352,7 @@
         <v>1810</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15371,7 +15366,7 @@
         <v>111</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15385,7 +15380,7 @@
         <v>1814</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15399,7 +15394,7 @@
         <v>1817</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15413,7 +15408,7 @@
         <v>1820</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15427,7 +15422,7 @@
         <v>1823</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15441,7 +15436,7 @@
         <v>1826</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15455,7 +15450,7 @@
         <v>1829</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15469,7 +15464,7 @@
         <v>1832</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15483,7 +15478,7 @@
         <v>1835</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15508,7 +15503,7 @@
         <v>114</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15522,7 +15517,7 @@
         <v>1842</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15536,7 +15531,7 @@
         <v>1845</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15550,7 +15545,7 @@
         <v>1848</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15564,7 +15559,7 @@
         <v>1851</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15578,7 +15573,7 @@
         <v>1854</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
